--- a/数据关系表.xlsx
+++ b/数据关系表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huyif\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\Database_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA922D1D-1052-40DA-8304-8E0F4B1C2021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96555D9-6174-4045-8E91-C1ED108977BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>论文库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>作者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户收藏夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +146,14 @@
       <b/>
       <u val="double"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -157,9 +181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -211,50 +236,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>256152</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>5638</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962CD4CF-89D6-4E25-8AD6-7CB8B1CE3D30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8180952" cy="5695238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -278,7 +259,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -297,16 +278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>418831</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>267982</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67553</xdr:rowOff>
+      <xdr:rowOff>176101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>99244</xdr:colOff>
+      <xdr:colOff>603879</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>68029</xdr:rowOff>
+      <xdr:rowOff>176577</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -322,15 +303,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13267448" y="67553"/>
-          <a:ext cx="9610732" cy="10363136"/>
+          <a:off x="13742682" y="176101"/>
+          <a:ext cx="9581497" cy="10490676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -605,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="N3:R8"/>
+  <dimension ref="N3:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="W68" sqref="W68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -697,6 +678,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="68" spans="21:22" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="U68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V68" s="2"/>
+    </row>
+    <row r="69" spans="21:22" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="U69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="2"/>
+    </row>
+    <row r="70" spans="21:22" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="U70" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V70" s="2"/>
+    </row>
+    <row r="71" spans="21:22" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="U71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V71" s="2"/>
+    </row>
+    <row r="72" spans="21:22" ht="27.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
